--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -491,7 +491,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45935</v>
+        <v>45936</v>
       </c>
       <c r="B2" t="n">
         <v>0.008047985414953484</v>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Evaluasi" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,18 +18,15 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -40,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -48,22 +45,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -438,87 +427,87 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Tanggal_Update</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>RMSE</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>MAPE</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>R2</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>MSE</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Jumlah_Data_Evaluasi</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>MSE_Price</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>RMSE_Price</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>MAE_Price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>R2_Price</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>45936</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.008047985414953484</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1.149062054539716</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.06336290163663183</v>
-      </c>
-      <c r="E2" t="n">
-        <v>6.477006923930401e-05</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="A2" s="1" t="n">
+        <v>45937</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>0.008217311197419652</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>1.465681849318622</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0.01215766150392072</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>6.75242033152384e-05</v>
+      </c>
+      <c r="F2" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="G2" t="n">
-        <v>4097.941492097407</v>
-      </c>
-      <c r="H2" t="n">
-        <v>64.01516611005088</v>
-      </c>
-      <c r="I2" t="n">
-        <v>52.99226145623734</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.7872505150469828</v>
+      <c r="G2" s="2" t="n">
+        <v>4277.950583559414</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>65.40604393754001</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>54.02125274057797</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>0.7915770596779452</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -16,9 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
+    <numFmt numFmtId="165" formatCode="[$-421]#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="DD/MM/YYYY"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -51,8 +52,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -481,34 +481,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45937</v>
+        <v>45944</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.008217311197419652</v>
+        <v>0.007679953205691472</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.465681849318622</v>
+        <v>1.626911367747524</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.01215766150392072</v>
+        <v>0.02282632902275583</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>6.75242033152384e-05</v>
+        <v>5.898168124161073e-05</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>29</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>4277.950583559414</v>
+        <v>3492.988802624848</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>65.40604393754001</v>
+        <v>59.10151269320311</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>54.02125274057797</v>
+        <v>49.10089788410074</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.7915770596779452</v>
+        <v>0.8710329042982154</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -481,34 +481,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45944</v>
+        <v>45949</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.007679953205691472</v>
+        <v>0.009329675380027286</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.626911367747524</v>
+        <v>1.610176344153507</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.02282632902275583</v>
+        <v>0.02747964137393155</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>5.898168124161073e-05</v>
+        <v>8.704284269668728e-05</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>29</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3492.988802624848</v>
+        <v>5481.429871186317</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>59.10151269320311</v>
+        <v>74.03667922851697</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>49.10089788410074</v>
+        <v>55.92120153249586</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.8710329042982154</v>
+        <v>0.7554013296252071</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -481,7 +481,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45949</v>
+        <v>45950</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>0.009329675380027286</v>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -481,34 +481,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45950</v>
+        <v>45951</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.009329675380027286</v>
+        <v>0.009896303083748987</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.610176344153507</v>
+        <v>1.611784871977062</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.02747964137393155</v>
+        <v>0.001998994557934175</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>8.704284269668728e-05</v>
+        <v>9.79368147254197e-05</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>29</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>5481.429871186317</v>
+        <v>5894.562625387054</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>74.03667922851697</v>
+        <v>76.77605502620628</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>55.92120153249586</v>
+        <v>57.27685099276955</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.7554013296252071</v>
+        <v>0.6414467162150262</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -481,34 +481,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45951</v>
+        <v>45952</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.009896303083748987</v>
+        <v>0.009849599521255463</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.611784871977062</v>
+        <v>1.609183952179172</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.001998994557934175</v>
+        <v>-0.03155748909483536</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>9.79368147254197e-05</v>
+        <v>9.701461072911586e-05</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>29</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>5894.562625387054</v>
+        <v>6292.661563533317</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>76.77605502620628</v>
+        <v>79.32629805766381</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>57.27685099276955</v>
+        <v>59.19687334396314</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.6414467162150262</v>
+        <v>0.5117784545863689</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -481,34 +481,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45952</v>
+        <v>45953</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.009849599521255463</v>
+        <v>0.009921159580680535</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.609183952179172</v>
+        <v>1.611438011485472</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.03155748909483536</v>
+        <v>-0.006546646661690803</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>9.701461072911586e-05</v>
+        <v>9.842940742532917e-05</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>29</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>6292.661563533317</v>
+        <v>6567.594206706573</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>79.32629805766381</v>
+        <v>81.04069475705754</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>59.19687334396314</v>
+        <v>61.18806064788027</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.5117784545863689</v>
+        <v>0.2906261953810414</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -481,34 +481,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45953</v>
+        <v>45954</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.009921159580680535</v>
+        <v>0.01023721997442861</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.611438011485472</v>
+        <v>1.617026993680357</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.006546646661690803</v>
+        <v>-0.02064236629879224</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>9.842940742532917e-05</v>
+        <v>0.0001048006728048401</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>29</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>6567.594206706573</v>
+        <v>6721.437483416983</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>81.04069475705754</v>
+        <v>81.98437340991869</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>61.18806064788027</v>
+        <v>61.88505157790396</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.2906261953810414</v>
+        <v>0.1977963765610751</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -481,34 +481,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45954</v>
+        <v>45956</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.01023721997442861</v>
+        <v>0.009966437180098865</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.617026993680357</v>
+        <v>1.77646509386</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.02064236629879224</v>
+        <v>-0.01040491458725823</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.0001048006728048401</v>
+        <v>9.9329870064857e-05</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>29</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>6721.437483416983</v>
+        <v>6559.115053537917</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>81.98437340991869</v>
+        <v>80.98836369218677</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>61.88505157790396</v>
+        <v>59.98225770763258</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1977963765610751</v>
+        <v>0.2103258227616113</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -481,34 +481,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45954</v>
+        <v>45957</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.01023721997442861</v>
+        <v>0.009966437180098865</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.617026993680357</v>
+        <v>1.77646509386</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.02064236629879224</v>
+        <v>-0.01040491458725823</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.0001048006728048401</v>
+        <v>9.9329870064857e-05</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>29</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>6721.437483416983</v>
+        <v>6559.115053537917</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>81.98437340991869</v>
+        <v>80.98836369218677</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>61.88505157790396</v>
+        <v>59.98225770763258</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1977963765610751</v>
+        <v>0.2103258227616113</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -481,34 +481,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45957</v>
+        <v>45958</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.009966437180098865</v>
+        <v>0.01039723268210597</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.77646509386</v>
+        <v>1.781318867683297</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.01040491458725823</v>
+        <v>0.005823350718107023</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>9.9329870064857e-05</v>
+        <v>0.0001081024474458526</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>29</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>6559.115053537917</v>
+        <v>7366.188160759889</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>80.98836369218677</v>
+        <v>85.82650034086144</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>59.98225770763258</v>
+        <v>64.96779780339345</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.2103258227616113</v>
+        <v>0.01006323931199704</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -481,34 +481,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45956</v>
+        <v>45958</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.009966437180098865</v>
+        <v>0.01039723268210597</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.77646509386</v>
+        <v>1.781318867683297</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.01040491458725823</v>
+        <v>0.005823350718107023</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>9.9329870064857e-05</v>
+        <v>0.0001081024474458526</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>29</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>6559.115053537917</v>
+        <v>7366.188160759889</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>80.98836369218677</v>
+        <v>85.82650034086144</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>59.98225770763258</v>
+        <v>64.96779780339345</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.2103258227616113</v>
+        <v>0.01006323931199704</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -481,34 +481,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45958</v>
+        <v>45959</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.01039723268210597</v>
+        <v>0.01040842583759668</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.781318867683297</v>
+        <v>1.798851615655539</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.005823350718107023</v>
+        <v>0.006836930420946796</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.0001081024474458526</v>
+        <v>0.0001083353284167501</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>29</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>7366.188160759889</v>
+        <v>7244.989345809036</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>85.82650034086144</v>
+        <v>85.11750316949527</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>64.96779780339345</v>
+        <v>63.57268785809946</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.01006323931199704</v>
+        <v>-0.01231073859552678</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -481,34 +481,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45959</v>
+        <v>45960</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.01040842583759668</v>
+        <v>0.0104430601202621</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.798851615655539</v>
+        <v>1.801330784029036</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.006836930420946796</v>
+        <v>0.003268266466223246</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.0001083353284167501</v>
+        <v>0.0001090575046754088</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>29</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>7244.989345809036</v>
+        <v>7409.854045730341</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>85.11750316949527</v>
+        <v>86.08050909311783</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>63.57268785809946</v>
+        <v>65.16235359265582</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>-0.01231073859552678</v>
+        <v>-0.0962749861455936</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -481,34 +481,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45960</v>
+        <v>45961</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.0104430601202621</v>
+        <v>0.01042322294647325</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.801330784029036</v>
+        <v>1.754400925969261</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.003268266466223246</v>
+        <v>0.005348041151770344</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.0001090575046754088</v>
+        <v>0.0001086435765918865</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>29</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>7409.854045730341</v>
+        <v>7367.358665391402</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>86.08050909311783</v>
+        <v>85.83331908642123</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>65.16235359265582</v>
+        <v>64.12873118220435</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>-0.0962749861455936</v>
+        <v>-0.1069589500099655</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -18,8 +18,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="[$-421]#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="DD/MM/YYYY"/>
+    <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
+    <numFmt numFmtId="166" formatCode="[$-421]#,##0.00"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -50,10 +50,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -484,31 +485,31 @@
         <v>45961</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.01042322294647325</v>
+        <v>0.005080933345529242</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.754400925969261</v>
+        <v>0.9057459357033854</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.005348041151770344</v>
+        <v>0.8129863656775127</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.0001086435765918865</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>29</v>
+        <v>2.581588366171098e-05</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>21</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>7367.358665391402</v>
+        <v>1749.95412525557</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>85.83331908642123</v>
+        <v>41.83245301504049</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>64.12873118220435</v>
+        <v>21.63134065291425</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>-0.1069589500099655</v>
+        <v>0.7638187495916015</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -481,34 +481,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45961</v>
+        <v>45964</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.01042322294647325</v>
+        <v>0.01040496638051104</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.754400925969261</v>
+        <v>1.765552784664346</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.005348041151770344</v>
+        <v>0.005120496487656778</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.0001086435765918865</v>
+        <v>0.000108263325379565</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>29</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>7367.358665391402</v>
+        <v>7360.70878677862</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>85.83331908642123</v>
+        <v>85.79457317790339</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>64.12873118220435</v>
+        <v>63.99813271026882</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>-0.1069589500099655</v>
+        <v>-0.1523367082005387</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -482,34 +482,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45961</v>
+        <v>45964</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.005080933345529242</v>
+        <v>0.005443030121259208</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>0.9057459357033854</v>
+        <v>0.9764707073350958</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.8129863656775127</v>
+        <v>0.8135547157614241</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>2.581588366171098e-05</v>
+        <v>2.962657690093503e-05</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1749.95412525557</v>
+        <v>2009.432811340071</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>41.83245301504049</v>
+        <v>44.82669752881725</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>21.63134065291425</v>
+        <v>22.95765224892385</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.7638187495916015</v>
+        <v>0.7548244453530348</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -481,34 +481,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45964</v>
+        <v>45965</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.01040496638051104</v>
+        <v>0.01065960342851664</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.765552784664346</v>
+        <v>1.715392565706503</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.005120496487656778</v>
+        <v>0.004795409163974806</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.000108263325379565</v>
+        <v>0.0001136271452532437</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>29</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>7360.70878677862</v>
+        <v>7564.33689556306</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>85.79457317790339</v>
+        <v>86.97319642029412</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>63.99813271026882</v>
+        <v>65.11716381748255</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>-0.1523367082005387</v>
+        <v>-0.07607269877218825</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -482,34 +482,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45964</v>
+        <v>45965</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.005443030121259208</v>
+        <v>0.005375553564523805</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>0.9764707073350958</v>
+        <v>1.009767505000193</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.8135547157614241</v>
+        <v>0.8085599273152317</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>2.962657690093503e-05</v>
+        <v>2.889657612506459e-05</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2009.432811340071</v>
+        <v>1959.218308016009</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>44.82669752881725</v>
+        <v>44.26305805088493</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>22.95765224892385</v>
+        <v>23.45915804915273</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.7548244453530348</v>
+        <v>0.7477612869159103</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -485,31 +485,31 @@
         <v>45965</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.005375553564523805</v>
+        <v>0.00516220261919316</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.009767505000193</v>
+        <v>1.374451949963991</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.8085599273152317</v>
+        <v>0.767956424923307</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>2.889657612506459e-05</v>
+        <v>2.664833588160472e-05</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1959.218308016009</v>
+        <v>1796.206321674443</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>44.26305805088493</v>
+        <v>42.38167436138458</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>23.45915804915273</v>
+        <v>24.32737954491605</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.7477612869159103</v>
+        <v>0.7444787810482614</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -481,34 +481,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45965</v>
+        <v>45966</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.01065960342851664</v>
+        <v>0.01057155444958185</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.715392565706503</v>
+        <v>1.731959109392288</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.004795409163974806</v>
+        <v>-0.0002958729062616516</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.0001136271452532437</v>
+        <v>0.0001117577634804739</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>29</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>7564.33689556306</v>
+        <v>7622.833672066755</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>86.97319642029412</v>
+        <v>87.30884074403207</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>65.11716381748255</v>
+        <v>66.0144446004977</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>-0.07607269877218825</v>
+        <v>-0.03561327301824813</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -482,7 +482,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45965</v>
+        <v>45966</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>0.00516220261919316</v>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -485,31 +485,31 @@
         <v>45966</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.00516220261919316</v>
+        <v>0.005207397339685385</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.374451949963991</v>
+        <v>0.8808371408634805</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.767956424923307</v>
+        <v>0.7653682606515217</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>2.664833588160472e-05</v>
+        <v>2.711698705336242e-05</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>30</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1796.206321674443</v>
+        <v>1828.861508112073</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>42.38167436138458</v>
+        <v>42.76519037853186</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>24.32737954491605</v>
+        <v>24.88872533939261</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.7444787810482614</v>
+        <v>0.7515368518070366</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -481,34 +481,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45966</v>
+        <v>45967</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.01057155444958185</v>
+        <v>0.01069688466223317</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.731959109392288</v>
+        <v>1.284022132825244</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.0002958729062616516</v>
+        <v>-0.0020599040884135</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.0001117577634804739</v>
+        <v>0.0001144233414771192</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>29</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>7622.833672066755</v>
+        <v>7534.199291962193</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>87.30884074403207</v>
+        <v>86.79976550637791</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>66.0144446004977</v>
+        <v>65.48676819248919</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>-0.03561327301824813</v>
+        <v>0.05104590149756794</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -482,7 +482,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45966</v>
+        <v>45967</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>0.005207397339685385</v>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -481,34 +481,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45967</v>
+        <v>45968</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.01069688466223317</v>
+        <v>0.01049709499076266</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.284022132825244</v>
+        <v>1.253695256002128</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.0020599040884135</v>
+        <v>-0.004139291558410862</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.0001144233414771192</v>
+        <v>0.0001101890032450945</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>29</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>7534.199291962193</v>
+        <v>7454.169327806972</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>86.79976550637791</v>
+        <v>86.33753139745757</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>65.48676819248919</v>
+        <v>63.92286814971835</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.05104590149756794</v>
+        <v>0.1644944594740895</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -482,34 +482,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45967</v>
+        <v>45968</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.005207397339685385</v>
+        <v>0.005403185095069125</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>0.8808371408634805</v>
+        <v>0.9074645897236259</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.7653682606515217</v>
+        <v>0.7427476582727388</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>2.711698705336242e-05</v>
+        <v>2.919440917157715e-05</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>30</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1828.861508112073</v>
+        <v>1970.010760337419</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>42.76519037853186</v>
+        <v>44.38480325896938</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>24.88872533939261</v>
+        <v>26.90762659639579</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.7515368518070366</v>
+        <v>0.7518714713173973</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -481,34 +481,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45968</v>
+        <v>45971</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.01049709499076266</v>
+        <v>0.01048217392726666</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.253695256002128</v>
+        <v>1.251203918179987</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.004139291558410862</v>
+        <v>-0.00269477850282307</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.0001101890032450945</v>
+        <v>0.0001098759702414689</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>29</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>7454.169327806972</v>
+        <v>7514.316238747282</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>86.33753139745757</v>
+        <v>86.68515581544098</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>63.92286814971835</v>
+        <v>65.04955419005449</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1644944594740895</v>
+        <v>0.2938162124956535</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -482,34 +482,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45968</v>
+        <v>45971</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.005403185095069125</v>
+        <v>0.00541310815787175</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>0.9074645897236259</v>
+        <v>0.9352584112575065</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.7427476582727388</v>
+        <v>0.738890065254129</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>2.919440917157715e-05</v>
+        <v>2.930173992881769e-05</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>30</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1970.010760337419</v>
+        <v>1977.704145663809</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>44.38480325896938</v>
+        <v>44.47138569534133</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>26.90762659639579</v>
+        <v>27.17542631633907</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.7518714713173973</v>
+        <v>0.7783277118405212</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -481,34 +481,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45971</v>
+        <v>45972</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.01048217392726666</v>
+        <v>0.01049010855183599</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.251203918179987</v>
+        <v>1.451815504501942</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.00269477850282307</v>
+        <v>-0.004384053522912934</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.0001098759702414689</v>
+        <v>0.0001100423774293025</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>29</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>7514.316238747282</v>
+        <v>7252.696583953909</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>86.68515581544098</v>
+        <v>85.16276524370207</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>65.04955419005449</v>
+        <v>62.70010050073675</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.2938162124956535</v>
+        <v>0.382757808256286</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -482,34 +482,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45971</v>
+        <v>45972</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.00541310815787175</v>
+        <v>0.005415287531452294</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>0.9352584112575065</v>
+        <v>0.9073004756681076</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.738890065254129</v>
+        <v>0.7410699622038353</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>2.930173992881769e-05</v>
+        <v>2.932533904830268e-05</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>30</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1977.704145663809</v>
+        <v>1981.770428936092</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>44.47138569534133</v>
+        <v>44.51708019329313</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>27.17542631633907</v>
+        <v>27.23317740684819</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.7783277118405212</v>
+        <v>0.8137562882629606</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -481,34 +481,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45972</v>
+        <v>45973</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.01049010855183599</v>
+        <v>0.01032343624403199</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.451815504501942</v>
+        <v>1.451680337262306</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.004384053522912934</v>
+        <v>0.008772420739500464</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.0001100423774293025</v>
+        <v>0.0001065733358845932</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>29</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>7252.696583953909</v>
+        <v>7266.662571140284</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>85.16276524370207</v>
+        <v>85.2447216614629</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>62.70010050073675</v>
+        <v>62.91519242606391</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.382757808256286</v>
+        <v>0.4002900785616509</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -482,34 +482,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45972</v>
+        <v>45973</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.005415287531452294</v>
+        <v>0.005393715393338259</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>0.9073004756681076</v>
+        <v>1.076955044272158</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.7410699622038353</v>
+        <v>0.7369186289588454</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>2.932533904830268e-05</v>
+        <v>2.909216574433409e-05</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>30</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1981.770428936092</v>
+        <v>1967.09090804937</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>44.51708019329313</v>
+        <v>44.35189858449545</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>27.23317740684819</v>
+        <v>26.90915016793964</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.8137562882629606</v>
+        <v>0.832590335278909</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -481,34 +481,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45973</v>
+        <v>45974</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.01032343624403199</v>
+        <v>0.01030803485358782</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.451680337262306</v>
+        <v>1.419334960123096</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.008772420739500464</v>
+        <v>0.008424001060243214</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.0001065733358845932</v>
+        <v>0.0001062555825427812</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>29</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>7266.662571140284</v>
+        <v>7265.852566968921</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>85.2447216614629</v>
+        <v>85.23997047728794</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>62.91519242606391</v>
+        <v>62.89063851890989</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.4002900785616509</v>
+        <v>0.431289594240909</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -482,34 +482,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45973</v>
+        <v>45974</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.005393715393338259</v>
+        <v>0.005469854161689016</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.076955044272158</v>
+        <v>1.112730944179491</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.7369186289588454</v>
+        <v>0.7299788158617335</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>2.909216574433409e-05</v>
+        <v>2.991930455014665e-05</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>30</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1967.09090804937</v>
+        <v>2025.75284346432</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>44.35189858449545</v>
+        <v>45.00836415005904</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>26.90915016793964</v>
+        <v>27.97459427775228</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.832590335278909</v>
+        <v>0.8328167756911735</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -481,34 +481,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.01030803485358782</v>
+        <v>0.01031068232563428</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.419334960123096</v>
+        <v>1.440160597650994</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.008424001060243214</v>
+        <v>0.01008565831001818</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.0001062555825427812</v>
+        <v>0.0001063101700201471</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>29</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>7265.852566968921</v>
+        <v>7242.512957940799</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>85.23997047728794</v>
+        <v>85.10295504822849</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>62.89063851890989</v>
+        <v>62.45657850869787</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.431289594240909</v>
+        <v>0.4594535799067894</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -482,34 +482,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.005469854161689016</v>
+        <v>0.005470213851195635</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.112730944179491</v>
+        <v>1.117071665962765</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.7299788158617335</v>
+        <v>0.7297390222817202</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>2.991930455014665e-05</v>
+        <v>2.992323957781258e-05</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>30</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2025.75284346432</v>
+        <v>2026.336148716007</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>45.00836415005904</v>
+        <v>45.01484364869</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>27.97459427775228</v>
+        <v>28.00151259942739</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.8328167756911735</v>
+        <v>0.8413952880657833</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -481,34 +481,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45975</v>
+        <v>45978</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.01031068232563428</v>
+        <v>0.01030076562785415</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.440160597650994</v>
+        <v>2.002423798209478</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.01008565831001818</v>
+        <v>0.00581228670375078</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.0001063101700201471</v>
+        <v>0.0001061057725199815</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>29</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>7242.512957940799</v>
+        <v>7267.609168210379</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>85.10295504822849</v>
+        <v>85.25027371340445</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>62.45657850869787</v>
+        <v>63.2251109932469</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.4594535799067894</v>
+        <v>0.4805385156308865</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -482,34 +482,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45975</v>
+        <v>45978</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.005470213851195635</v>
+        <v>0.005483215434114457</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.117071665962765</v>
+        <v>1.153580839175201</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.7297390222817202</v>
+        <v>0.7275419376882567</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>2.992323957781258e-05</v>
+        <v>3.006565149691099e-05</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>30</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2026.336148716007</v>
+        <v>2036.909142123128</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>45.01484364869</v>
+        <v>45.1321298203744</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>28.00151259942739</v>
+        <v>28.2902409441258</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.8413952880657833</v>
+        <v>0.8479748740217871</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -481,34 +481,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45978</v>
+        <v>45979</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.01030076562785415</v>
+        <v>0.01030984798952566</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>2.002423798209478</v>
+        <v>2.009164941404841</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.00581228670375078</v>
+        <v>0.009390416580224548</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.0001061057725199815</v>
+        <v>0.0001062929655671263</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>29</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>7267.609168210379</v>
+        <v>7274.167566544184</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>85.25027371340445</v>
+        <v>85.28873059522098</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>63.2251109932469</v>
+        <v>63.40846057552322</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.4805385156308865</v>
+        <v>0.5193278462952963</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -482,34 +482,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45978</v>
+        <v>45979</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.005483215434114457</v>
+        <v>0.005471685097375092</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.153580839175201</v>
+        <v>1.250373592536279</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.7275419376882567</v>
+        <v>0.7286051812781003</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>3.006565149691099e-05</v>
+        <v>2.993933780483667e-05</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>30</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2036.909142123128</v>
+        <v>2028.648294099109</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>45.1321298203744</v>
+        <v>45.04051835957384</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>28.2902409441258</v>
+        <v>27.9153090700619</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.8479748740217871</v>
+        <v>0.8549998177220242</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -481,34 +481,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45979</v>
+        <v>45980</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.01030984798952566</v>
+        <v>0.01042177488822511</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>2.009164941404841</v>
+        <v>2.035546349937528</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.009390416580224548</v>
+        <v>0.003214681007826958</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.0001062929655671263</v>
+        <v>0.0001086133918208396</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>29</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>7274.167566544184</v>
+        <v>7442.257079771897</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>85.28873059522098</v>
+        <v>86.26851731525178</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>63.40846057552322</v>
+        <v>65.28797085592845</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.5193278462952963</v>
+        <v>0.5211171612724965</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -482,34 +482,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45979</v>
+        <v>45980</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.005471685097375092</v>
+        <v>0.00548105215334519</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.250373592536279</v>
+        <v>1.248949312375851</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.7286051812781003</v>
+        <v>0.7288343925452896</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>2.993933780483667e-05</v>
+        <v>3.004193270768995e-05</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>30</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2028.648294099109</v>
+        <v>2036.236617179369</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>45.04051835957384</v>
+        <v>45.12467858256022</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>27.9153090700619</v>
+        <v>28.13364551158577</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.8549998177220242</v>
+        <v>0.8654468389299178</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -481,34 +481,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45980</v>
+        <v>45981</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.01042177488822511</v>
+        <v>0.01044062626043633</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>2.035546349937528</v>
+        <v>1.881794757169579</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.003214681007826958</v>
+        <v>0.00499661194920098</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.0001086133918208396</v>
+        <v>0.0001090066767101127</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>29</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>7442.257079771897</v>
+        <v>7291.143079142648</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>86.26851731525178</v>
+        <v>85.38819051334117</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>65.28797085592845</v>
+        <v>63.89101241584586</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.5211171612724965</v>
+        <v>0.5579771074553717</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -482,34 +482,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45980</v>
+        <v>45981</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.00548105215334519</v>
+        <v>0.005755986652353585</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.248949312375851</v>
+        <v>1.149138396296981</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.7288343925452896</v>
+        <v>0.7059355650712307</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>3.004193270768995e-05</v>
+        <v>3.313138234207263e-05</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>30</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2036.236617179369</v>
+        <v>2255.53351036027</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>45.12467858256022</v>
+        <v>47.49245740494241</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>28.13364551158577</v>
+        <v>30.43697476723847</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.8654468389299178</v>
+        <v>0.8548644210071493</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -481,34 +481,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.01044062626043633</v>
+        <v>0.01031451776780909</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.881794757169579</v>
+        <v>1.89646344510572</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.00499661194920098</v>
+        <v>0.001497513955653784</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.0001090066767101127</v>
+        <v>0.0001063892767824495</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>29</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>7291.143079142648</v>
+        <v>7294.667010201618</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>85.38819051334117</v>
+        <v>85.40882278899305</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>63.89101241584586</v>
+        <v>64.00149281597736</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.5579771074553717</v>
+        <v>0.5841211888959532</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -482,34 +482,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.005755986652353585</v>
+        <v>0.005783786459339328</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.149138396296981</v>
+        <v>1.166232375448339</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.7059355650712307</v>
+        <v>0.6964320737222239</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>3.313138234207263e-05</v>
+        <v>3.345218580723696e-05</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>30</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2255.53351036027</v>
+        <v>2278.15553717209</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>47.49245740494241</v>
+        <v>47.73002762593052</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>30.43697476723847</v>
+        <v>31.02567984103694</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.8548644210071493</v>
+        <v>0.8618876506362868</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -481,34 +481,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45982</v>
+        <v>45985</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.01031451776780909</v>
+        <v>0.01031894365771166</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.89646344510572</v>
+        <v>1.948428776747222</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.001497513955653784</v>
+        <v>0.001217303030654926</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.0001063892767824495</v>
+        <v>0.0001064805982110278</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>29</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>7294.667010201618</v>
+        <v>7259.720452738986</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>85.40882278899305</v>
+        <v>85.20399317367107</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>64.00149281597736</v>
+        <v>63.39815937608665</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.5841211888959532</v>
+        <v>0.6062243671001875</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -482,34 +482,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45982</v>
+        <v>45985</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.005783786459339328</v>
+        <v>0.005764169784350437</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.166232375448339</v>
+        <v>1.066541836585814</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.6964320737222239</v>
+        <v>0.6985583568281012</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>3.345218580723696e-05</v>
+        <v>3.322565330281857e-05</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>30</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2278.15553717209</v>
+        <v>2262.741323848034</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>47.73002762593052</v>
+        <v>47.56828064843246</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>31.02567984103694</v>
+        <v>30.37657089468205</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.8618876506362868</v>
+        <v>0.8709980633410834</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -481,34 +481,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45985</v>
+        <v>45986</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.01031894365771166</v>
+        <v>0.01066420821530372</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.948428776747222</v>
+        <v>1.935193064602517</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.001217303030654926</v>
+        <v>0.01992234667973825</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.0001064805982110278</v>
+        <v>0.0001137253368593513</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>29</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>7259.720452738986</v>
+        <v>7014.667930110618</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>85.20399317367107</v>
+        <v>83.75361443012844</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>63.39815937608665</v>
+        <v>62.53738879463194</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.6062243671001875</v>
+        <v>0.6553084367266531</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -482,34 +482,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45985</v>
+        <v>45986</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.005764169784350437</v>
+        <v>0.005817975161439508</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.066541836585814</v>
+        <v>1.28481481129441</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.6985583568281012</v>
+        <v>0.691156126029661</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>3.322565330281857e-05</v>
+        <v>3.384883497912707e-05</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>30</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2262.741323848034</v>
+        <v>2306.989268028565</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>47.56828064843246</v>
+        <v>48.03112811530211</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>30.37657089468205</v>
+        <v>31.39304390853691</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.8709980633410834</v>
+        <v>0.8748662341718291</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -481,34 +481,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45986</v>
+        <v>45987</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.01066420821530372</v>
+        <v>0.01020654239490118</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.935193064602517</v>
+        <v>1.951631188379543</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.01992234667973825</v>
+        <v>-0.01282118106746011</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.0001137253368593513</v>
+        <v>0.0001041735076589151</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>29</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>7014.667930110618</v>
+        <v>7179.059666013751</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>83.75361443012844</v>
+        <v>84.72933179256019</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>62.53738879463194</v>
+        <v>64.4828381584054</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.6553084367266531</v>
+        <v>0.6508213377703564</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -482,34 +482,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45986</v>
+        <v>45987</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.005817975161439508</v>
+        <v>0.00659932863278668</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.28481481129441</v>
+        <v>1.314828101911915</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.691156126029661</v>
+        <v>0.5827645052383212</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>3.384883497912707e-05</v>
+        <v>4.355113840351811e-05</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>30</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2306.989268028565</v>
+        <v>2993.977355237615</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>48.03112811530211</v>
+        <v>54.71724915634571</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>31.39304390853691</v>
+        <v>36.06630093715777</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.8748662341718291</v>
+        <v>0.8528798875065808</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -481,34 +481,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45987</v>
+        <v>45988</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.01020654239490118</v>
+        <v>0.01029163631188809</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.951631188379543</v>
+        <v>1.94747251816014</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.01282118106746011</v>
+        <v>-0.0172079757664747</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.0001041735076589151</v>
+        <v>0.0001059177779761734</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>29</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>7179.059666013751</v>
+        <v>7132.380206941942</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>84.72933179256019</v>
+        <v>84.45342033891784</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>64.4828381584054</v>
+        <v>64.1413976374576</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.6508213377703564</v>
+        <v>0.6867105599451726</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -482,34 +482,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45987</v>
+        <v>45988</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.00659932863278668</v>
+        <v>0.006795831742304395</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.314828101911915</v>
+        <v>1.365289341525773</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.5827645052383212</v>
+        <v>0.5638561639067001</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>4.355113840351811e-05</v>
+        <v>4.618332906971198e-05</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>30</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2993.977355237615</v>
+        <v>3187.317336440351</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>54.71724915634571</v>
+        <v>56.4563312343297</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>36.06630093715777</v>
+        <v>38.60377848041794</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.8528798875065808</v>
+        <v>0.8449736796438181</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -481,7 +481,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45988</v>
+        <v>45989</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>0.01029163631188809</v>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -481,34 +481,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45989</v>
+        <v>45992</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.01029163631188809</v>
+        <v>0.009094509175187886</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.94747251816014</v>
+        <v>1.964682154897004</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.0172079757664747</v>
+        <v>-0.02843917698398712</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.0001059177779761734</v>
+        <v>8.271009713757663e-05</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>29</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>7132.380206941942</v>
+        <v>4744.846533160668</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>84.45342033891784</v>
+        <v>68.88284643625485</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>64.1413976374576</v>
+        <v>54.87547178235074</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.6867105599451726</v>
+        <v>0.7374919619025975</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -482,34 +482,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45988</v>
+        <v>45992</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.006795831742304395</v>
+        <v>0.006913465097157893</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.365289341525773</v>
+        <v>1.39020288880865</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.5638561639067001</v>
+        <v>0.5492169729453173</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>4.618332906971198e-05</v>
+        <v>4.779599964962038e-05</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>30</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3187.317336440351</v>
+        <v>3304.4338573199</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>56.4563312343297</v>
+        <v>57.48420528562519</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>38.60377848041794</v>
+        <v>40.60383541213324</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.8449736796438181</v>
+        <v>0.8548529098532406</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -481,34 +481,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45992</v>
+        <v>45993</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.009094509175187886</v>
+        <v>0.00820700968855851</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.964682154897004</v>
+        <v>1.955773577946245</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.02843917698398712</v>
+        <v>0.004529048075085362</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>8.271009713757663e-05</v>
+        <v>6.735500802809325e-05</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>29</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>4744.846533160668</v>
+        <v>4177.608287568314</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>68.88284643625485</v>
+        <v>64.63442030039656</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>54.87547178235074</v>
+        <v>51.34308925234102</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.7374919619025975</v>
+        <v>0.7811253230601763</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -482,34 +482,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45992</v>
+        <v>45993</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.006913465097157893</v>
+        <v>0.00761079868674693</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.39020288880865</v>
+        <v>1.551634443897639</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.5492169729453173</v>
+        <v>0.1690495526913912</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>4.779599964962038e-05</v>
+        <v>5.79242566501888e-05</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>30</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3304.4338573199</v>
+        <v>4046.837422572552</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>57.48420528562519</v>
+        <v>63.61475789918997</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>40.60383541213324</v>
+        <v>47.17006862012439</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.8548529098532406</v>
+        <v>0.7761092282175404</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -481,34 +481,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45993</v>
+        <v>45994</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.00820700968855851</v>
+        <v>0.007735892411648581</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.955773577946245</v>
+        <v>1.952444132841428</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.004529048075085362</v>
+        <v>-0.003296995152960003</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>6.735500802809325e-05</v>
+        <v>5.98440314046021e-05</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>29</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>4177.608287568314</v>
+        <v>3945.31461625746</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>64.63442030039656</v>
+        <v>62.81173947804232</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>51.34308925234102</v>
+        <v>49.80769790040634</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.7811253230601763</v>
+        <v>0.8016868680624903</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -482,34 +482,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45993</v>
+        <v>45994</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.00761079868674693</v>
+        <v>0.007635961530234616</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.551634443897639</v>
+        <v>1.576800289479791</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.1690495526913912</v>
+        <v>0.0317237060037231</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>5.79242566501888e-05</v>
+        <v>5.830790849122297e-05</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>30</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>4046.837422572552</v>
+        <v>4075.791533807759</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>63.61475789918997</v>
+        <v>63.84192614424911</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>47.17006862012439</v>
+        <v>47.72704585477521</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.7761092282175404</v>
+        <v>0.7864597411176852</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -481,34 +481,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45994</v>
+        <v>45995</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.007735892411648581</v>
+        <v>0.00744810770853203</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.952444132841428</v>
+        <v>2.088486702973976</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.003296995152960003</v>
+        <v>-0.009289439573828995</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>5.98440314046021e-05</v>
+        <v>5.547430843789425e-05</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>29</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3945.31461625746</v>
+        <v>3470.88969089959</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>62.81173947804232</v>
+        <v>58.91425711064844</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>49.80769790040634</v>
+        <v>46.6007263532093</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.8016868680624903</v>
+        <v>0.8386785651856012</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -482,34 +482,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45994</v>
+        <v>45995</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.007635961530234616</v>
+        <v>0.007731433519795362</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.576800289479791</v>
+        <v>1.600756728965172</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.0317237060037231</v>
+        <v>-0.05531071177683478</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>5.830790849122297e-05</v>
+        <v>5.977506427101531e-05</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>30</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>4075.791533807759</v>
+        <v>4183.411361565099</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>63.84192614424911</v>
+        <v>64.67929623585201</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>47.72704585477521</v>
+        <v>49.27689127699968</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.7864597411176852</v>
+        <v>0.7897188209334944</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -481,34 +481,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45995</v>
+        <v>45996</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.00744810770853203</v>
+        <v>0.006951963132539049</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>2.088486702973976</v>
+        <v>2.07577481588861</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.009289439573828995</v>
+        <v>0.0172100827090208</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>5.547430843789425e-05</v>
+        <v>4.832979139618214e-05</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>29</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3470.88969089959</v>
+        <v>3473.344639453235</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>58.91425711064844</v>
+        <v>58.93508835535275</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>46.6007263532093</v>
+        <v>46.67666376196249</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.8386785651856012</v>
+        <v>0.8509533143926935</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -482,34 +482,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45995</v>
+        <v>45996</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.007731433519795362</v>
+        <v>0.007743673909058517</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.600756728965172</v>
+        <v>1.733208808235884</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.05531071177683478</v>
+        <v>-0.1815140876389369</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>5.977506427101531e-05</v>
+        <v>5.996448560983361e-05</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>30</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>4183.411361565099</v>
+        <v>4197.483893698278</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>64.67929623585201</v>
+        <v>64.78799189431848</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>49.27689127699968</v>
+        <v>49.92854941639328</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.7897188209334944</v>
+        <v>0.8049076217786015</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -481,34 +481,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45996</v>
+        <v>45999</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.006951963132539049</v>
+        <v>0.00696022265442344</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>2.07577481588861</v>
+        <v>1.985572315783949</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.0172100827090208</v>
+        <v>0.01635559623256877</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>4.832979139618214e-05</v>
+        <v>4.844469939914928e-05</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>29</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3473.344639453235</v>
+        <v>2681.095324669636</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>58.93508835535275</v>
+        <v>51.77929436241514</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>46.67666376196249</v>
+        <v>42.16750831788021</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.8509533143926935</v>
+        <v>0.8802215021795964</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -482,34 +482,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45996</v>
+        <v>45999</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.007743673909058517</v>
+        <v>0.007739808037521174</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.733208808235884</v>
+        <v>1.577789318633931</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.1815140876389369</v>
+        <v>-0.1801981880926964</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>5.996448560983361e-05</v>
+        <v>5.990462845767738e-05</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>30</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>4197.483893698278</v>
+        <v>4193.487997097579</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>64.78799189431848</v>
+        <v>64.75714630137418</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>49.92854941639328</v>
+        <v>49.71417467037269</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.8049076217786015</v>
+        <v>0.8200508293931332</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -481,34 +481,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45999</v>
+        <v>46000</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.00696022265442344</v>
+        <v>0.006178935518200813</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.985572315783949</v>
+        <v>1.97443502783837</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.01635559623256877</v>
+        <v>-0.03761185706489445</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>4.844469939914928e-05</v>
+        <v>3.817924413808355e-05</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>29</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2681.095324669636</v>
+        <v>2752.987864773439</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>51.77929436241514</v>
+        <v>52.46892284746695</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>42.16750831788021</v>
+        <v>43.13344309919771</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.8802215021795964</v>
+        <v>0.8724654923821487</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -482,34 +482,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45999</v>
+        <v>46000</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.007739808037521174</v>
+        <v>0.006783027576817356</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.577789318633931</v>
+        <v>1.626868645936149</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.1801981880926964</v>
+        <v>-0.261065959852617</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>5.990462845767738e-05</v>
+        <v>4.600946310786473e-05</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>30</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>4193.487997097579</v>
+        <v>3243.759194657669</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>64.75714630137418</v>
+        <v>56.95400946955068</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>49.71417467037269</v>
+        <v>44.59752988074671</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.8200508293931332</v>
+        <v>0.8550843753848651</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -481,34 +481,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>46000</v>
+        <v>46001</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.006178935518200813</v>
+        <v>0.006359416276955157</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.97443502783837</v>
+        <v>1.990206238720129</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.03761185706489445</v>
+        <v>-0.05779353571986712</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>3.817924413808355e-05</v>
+        <v>4.04421753836022e-05</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>29</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2752.987864773439</v>
+        <v>2758.520759323649</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>52.46892284746695</v>
+        <v>52.52162182685954</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>43.13344309919771</v>
+        <v>43.17011536247546</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.8724654923821487</v>
+        <v>0.8663843282775062</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -482,34 +482,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>46000</v>
+        <v>46001</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.006783027576817356</v>
+        <v>0.006896317243873906</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.626868645936149</v>
+        <v>1.622071755845889</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.261065959852617</v>
+        <v>-0.2844796985925324</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>4.600946310786473e-05</v>
+        <v>4.755919152815259e-05</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>30</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3243.759194657669</v>
+        <v>3361.686451925526</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>56.95400946955068</v>
+        <v>57.98005218974476</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>44.59752988074671</v>
+        <v>45.96679650636141</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.8550843753848651</v>
+        <v>0.8442670118899318</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -481,34 +481,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>46001</v>
+        <v>46002</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.006359416276955157</v>
+        <v>0.006169067230976089</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.990206238720129</v>
+        <v>1.981076366477897</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.05779353571986712</v>
+        <v>-0.03080212375857738</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>4.04421753836022e-05</v>
+        <v>3.8057390500303e-05</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>29</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2758.520759323649</v>
+        <v>2793.96923642337</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>52.52162182685954</v>
+        <v>52.85801014437992</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>43.17011536247546</v>
+        <v>44.10023870865277</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.8663843282775062</v>
+        <v>0.8612225881559497</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -482,34 +482,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>46001</v>
+        <v>46002</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.006896317243873906</v>
+        <v>0.006895500616775341</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.622071755845889</v>
+        <v>1.638826497996821</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.2844796985925324</v>
+        <v>-0.2549113586535572</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>4.755919152815259e-05</v>
+        <v>4.754792875594912e-05</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>30</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3361.686451925526</v>
+        <v>3391.513559937715</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>57.98005218974476</v>
+        <v>58.23670285943149</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>45.96679650636141</v>
+        <v>46.15876160907063</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.8442670118899318</v>
+        <v>0.8357237802415044</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -481,34 +481,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>46002</v>
+        <v>46003</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.006169067230976089</v>
+        <v>0.006485689649697276</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.981076366477897</v>
+        <v>2.010275722331565</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.03080212375857738</v>
+        <v>-0.02366540022475538</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>3.8057390500303e-05</v>
+        <v>4.206417023219038e-05</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>29</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2793.96923642337</v>
+        <v>3089.829598663886</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>52.85801014437992</v>
+        <v>55.58623569431452</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>44.10023870865277</v>
+        <v>46.58344976576286</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.8612225881559497</v>
+        <v>0.8241122489039392</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -482,34 +482,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>46002</v>
+        <v>46003</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.006895500616775341</v>
+        <v>0.006897055284157394</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.638826497996821</v>
+        <v>1.618681100555862</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.2549113586535572</v>
+        <v>-0.2454934997943632</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>4.754792875594912e-05</v>
+        <v>4.756937159272343e-05</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>30</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3391.513559937715</v>
+        <v>3394.688800608667</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>58.23670285943149</v>
+        <v>58.26395798955532</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>46.15876160907063</v>
+        <v>46.23698430504034</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.8357237802415044</v>
+        <v>0.8313846410250639</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -481,7 +481,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>46003</v>
+        <v>46006</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>0.006485689649697276</v>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -481,34 +481,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>46006</v>
+        <v>46007</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.006485689649697276</v>
+        <v>0.006077796352878605</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>2.010275722331565</v>
+        <v>2.036351331060837</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.02366540022475538</v>
+        <v>-0.01720572597005288</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>4.206417023219038e-05</v>
+        <v>3.693960850706447e-05</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>29</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3089.829598663886</v>
+        <v>2691.116037830963</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>55.58623569431452</v>
+        <v>51.87596782548701</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>46.58344976576286</v>
+        <v>43.40150427376723</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.8241122489039392</v>
+        <v>0.8258051075102545</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -482,34 +482,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>46003</v>
+        <v>46007</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.006897055284157394</v>
+        <v>0.007131359917925184</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.618681100555862</v>
+        <v>1.602503838042613</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.2454934997943632</v>
+        <v>-0.2145295433447449</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>4.756937159272343e-05</v>
+        <v>5.085629427898988e-05</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>30</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3394.688800608667</v>
+        <v>3648.270549800865</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>58.26395798955532</v>
+        <v>60.40091514042535</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>46.23698430504034</v>
+        <v>48.27890086906669</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.8313846410250639</v>
+        <v>0.7923231421331638</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -481,34 +481,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>46007</v>
+        <v>46008</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.006077796352878605</v>
+        <v>0.006043263663408321</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>2.036351331060837</v>
+        <v>2.023589592888554</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.01720572597005288</v>
+        <v>-0.02924805387188356</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>3.693960850706447e-05</v>
+        <v>3.652103570547135e-05</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>29</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2691.116037830963</v>
+        <v>2536.15712809713</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>51.87596782548701</v>
+        <v>50.36027331237521</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>43.40150427376723</v>
+        <v>42.02831477192552</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.8258051075102545</v>
+        <v>0.8323314757810546</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -482,34 +482,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>46007</v>
+        <v>46008</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.007131359917925184</v>
+        <v>0.006665762640860212</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.602503838042613</v>
+        <v>1.554598660161102</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.2145295433447449</v>
+        <v>-0.2177757402580667</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>5.085629427898988e-05</v>
+        <v>4.44323915842877e-05</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>30</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3648.270549800865</v>
+        <v>3221.078090924594</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>60.40091514042535</v>
+        <v>56.75454246952039</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>48.27890086906669</v>
+        <v>44.16832180131139</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.7923231421331638</v>
+        <v>0.7915008703222153</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -481,34 +481,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>46008</v>
+        <v>46009</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.006043263663408321</v>
+        <v>0.005824193796843789</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>2.023589592888554</v>
+        <v>2.078919573333175</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.02924805387188356</v>
+        <v>-0.005319241480974179</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>3.652103570547135e-05</v>
+        <v>3.392123338319367e-05</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>29</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2536.15712809713</v>
+        <v>2556.118355777342</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>50.36027331237521</v>
+        <v>50.55806914605563</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>42.02831477192552</v>
+        <v>42.76366224578292</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.8323314757810546</v>
+        <v>0.8255357263398959</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -482,34 +482,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>46008</v>
+        <v>46009</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.006665762640860212</v>
+        <v>0.006532235979735243</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.554598660161102</v>
+        <v>1.550834256675985</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.2177757402580667</v>
+        <v>-0.2301611922900924</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>4.44323915842877e-05</v>
+        <v>4.267010689494764e-05</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>30</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3221.078090924594</v>
+        <v>3103.654348496675</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>56.75454246952039</v>
+        <v>55.71045098091268</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>44.16832180131139</v>
+        <v>42.87894385136666</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.7915008703222153</v>
+        <v>0.7948135237627831</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -481,34 +481,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>46009</v>
+        <v>46010</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.005824193796843789</v>
+        <v>0.00598362944435697</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>2.078919573333175</v>
+        <v>2.110473624966853</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.005319241480974179</v>
+        <v>0.002506134914190827</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>3.392123338319367e-05</v>
+        <v>3.580382132737571e-05</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>29</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2556.118355777342</v>
+        <v>2639.232734055896</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>50.55806914605563</v>
+        <v>51.37346332549419</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>42.76366224578292</v>
+        <v>43.53102728496467</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.8255357263398959</v>
+        <v>0.8138352474862409</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -482,34 +482,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>46009</v>
+        <v>46010</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.006532235979735243</v>
+        <v>0.006522633270709064</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.550834256675985</v>
+        <v>1.552484043379963</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.2301611922900924</v>
+        <v>-0.2196655404857852</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>4.267010689494764e-05</v>
+        <v>4.254474478416082e-05</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>30</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3103.654348496675</v>
+        <v>3095.233323651677</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>55.71045098091268</v>
+        <v>55.6348211433422</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>42.87894385136666</v>
+        <v>42.57458235800355</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.7948135237627831</v>
+        <v>0.7887391902652263</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -481,34 +481,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>46010</v>
+        <v>46013</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.00598362944435697</v>
+        <v>0.005912002406868258</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>2.110473624966853</v>
+        <v>2.120011701390246</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.002506134914190827</v>
+        <v>-0.002551861939609434</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>3.580382132737571e-05</v>
+        <v>3.495177245881608e-05</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>29</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2639.232734055896</v>
+        <v>2625.88509719664</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>51.37346332549419</v>
+        <v>51.24339076599674</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>43.53102728496467</v>
+        <v>43.09408720269607</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.8138352474862409</v>
+        <v>0.8056155040999046</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -482,34 +482,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>46010</v>
+        <v>46013</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.006522633270709064</v>
+        <v>0.00666518490137813</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.552484043379963</v>
+        <v>1.574164503624583</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.2196655404857852</v>
+        <v>-0.2360420056403814</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>4.254474478416082e-05</v>
+        <v>4.4424689769559e-05</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>30</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3095.233323651677</v>
+        <v>3240.517647024963</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>55.6348211433422</v>
+        <v>56.92554476704605</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>42.57458235800355</v>
+        <v>43.89190444631791</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.7887391902652263</v>
+        <v>0.7714221417495897</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -481,34 +481,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>46013</v>
+        <v>46014</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.005912002406868258</v>
+        <v>0.005942529280950066</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>2.120011701390246</v>
+        <v>1.938029172793257</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.002551861939609434</v>
+        <v>-0.004329035066562126</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>3.495177245881608e-05</v>
+        <v>3.531365425494891e-05</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>29</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2625.88509719664</v>
+        <v>2626.910576370595</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>51.24339076599674</v>
+        <v>51.25339575453118</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>43.09408720269607</v>
+        <v>43.10841285322536</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.8056155040999046</v>
+        <v>0.7915141965852527</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -482,34 +482,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>46013</v>
+        <v>46014</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.00666518490137813</v>
+        <v>0.006660914239696778</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.574164503624583</v>
+        <v>1.44812313975873</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.2360420056403814</v>
+        <v>-0.2321514963172213</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>4.4424689769559e-05</v>
+        <v>4.43677785085953e-05</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>30</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3240.517647024963</v>
+        <v>3236.890656745028</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>56.92554476704605</v>
+        <v>56.89367853061558</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>43.89190444631791</v>
+        <v>43.7809495565426</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.7714221417495897</v>
+        <v>0.7603850376900199</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -481,34 +481,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>46014</v>
+        <v>46015</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.005942529280950066</v>
+        <v>0.00604260885488291</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.938029172793257</v>
+        <v>1.924729208116768</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.004329035066562126</v>
+        <v>0.007638732502604939</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>3.531365425494891e-05</v>
+        <v>3.651312177310935e-05</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>29</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2626.910576370595</v>
+        <v>2757.036278679069</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>51.25339575453118</v>
+        <v>52.50748783439433</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>43.10841285322536</v>
+        <v>44.74207260026516</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.7915141965852527</v>
+        <v>0.762051415489326</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -482,34 +482,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>46014</v>
+        <v>46015</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.006660914239696778</v>
+        <v>0.006638227375267228</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.44812313975873</v>
+        <v>1.422388241126249</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.2321514963172213</v>
+        <v>-0.2304061738883658</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>4.43677785085953e-05</v>
+        <v>4.406606268574723e-05</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>30</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3236.890656745028</v>
+        <v>3217.883473420099</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>56.89367853061558</v>
+        <v>56.7263913308444</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>43.7809495565426</v>
+        <v>43.54028288854948</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.7603850376900199</v>
+        <v>0.7446113974013019</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -481,34 +481,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>46015</v>
+        <v>46017</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.00604260885488291</v>
+        <v>0.006094310061150928</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.924729208116768</v>
+        <v>1.929323277742575</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.007638732502604939</v>
+        <v>0.02150419346809218</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>3.651312177310935e-05</v>
+        <v>3.714061512144543e-05</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>29</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2757.036278679069</v>
+        <v>2799.711365070183</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>52.50748783439433</v>
+        <v>52.91229880727337</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>44.74207260026516</v>
+        <v>45.43762919020936</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.762051415489326</v>
+        <v>0.7280655788276233</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -482,34 +482,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>46015</v>
+        <v>46017</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.006638227375267228</v>
+        <v>0.00676318286801902</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.422388241126249</v>
+        <v>1.439484930292273</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.2304061738883658</v>
+        <v>-0.2052034196739043</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>4.406606268574723e-05</v>
+        <v>4.574064250626597e-05</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>30</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3217.883473420099</v>
+        <v>3343.354307736618</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>56.7263913308444</v>
+        <v>57.82174597620361</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>43.54028288854948</v>
+        <v>45.26896390165705</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.7446113974013019</v>
+        <v>0.7114486917724749</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -481,7 +481,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>46017</v>
+        <v>46020</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>0.006094310061150928</v>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -481,34 +481,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>46020</v>
+        <v>46021</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.006094310061150928</v>
+        <v>0.006499727343969885</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.929323277742575</v>
+        <v>1.921659457947674</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.02150419346809218</v>
+        <v>-0.001514348807810206</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>3.714061512144543e-05</v>
+        <v>4.224645554594981e-05</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>29</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2799.711365070183</v>
+        <v>3173.863919444813</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>52.91229880727337</v>
+        <v>56.33705636119812</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>45.43762919020936</v>
+        <v>48.20507117272917</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.7280655788276233</v>
+        <v>0.6477716376283971</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation.xlsx
+++ b/model_evaluation.xlsx
@@ -481,34 +481,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>46021</v>
+        <v>46022</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.006499727343969885</v>
+        <v>0.006473807377140892</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.921659457947674</v>
+        <v>1.42446931105477</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.001514348807810206</v>
+        <v>0.005649132565640036</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>4.224645554594981e-05</v>
+        <v>4.191018195632384e-05</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>29</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3173.863919444813</v>
+        <v>3161.060180771178</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>56.33705636119812</v>
+        <v>56.22330638419603</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>48.20507117272917</v>
+        <v>47.74227232598812</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.6477716376283971</v>
+        <v>0.6137192473906787</v>
       </c>
     </row>
   </sheetData>
